--- a/Tesis/USUARIOS REGISTRADOS EN PAY2META.xlsx
+++ b/Tesis/USUARIOS REGISTRADOS EN PAY2META.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maestria de Sofware\Maestria-de-Sofware\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89BEB8D-3A2E-4720-8909-AF8650D0C0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1BF771-DC1A-4FC0-A179-806A6419324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4F93F685-C91C-4C3F-8FA8-EE053ADCDBEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4F93F685-C91C-4C3F-8FA8-EE053ADCDBEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Cantidad de usuarios verificados biometricamente</t>
   </si>
@@ -57,6 +58,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>total de transacciones</t>
+  </si>
+  <si>
+    <t>Smart contract ejecutados correctamente</t>
+  </si>
+  <si>
+    <t>Comercio incumplió acuerdo</t>
+  </si>
+  <si>
+    <t>Pagos fraudulentos por clientes</t>
+  </si>
+  <si>
+    <t>Saldo insuficiente de critpomoneda</t>
   </si>
 </sst>
 </file>
@@ -100,6 +116,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -128,15 +149,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$2</c:f>
+              <c:f>Usuarios!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -146,32 +168,95 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$1:$D$1</c:f>
+              <c:f>Usuarios!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -188,7 +273,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$D$2</c:f>
+              <c:f>Usuarios!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -199,12 +284,11 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7CCA-4ED6-8437-D6625FCC25A5}"/>
@@ -216,7 +300,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$3</c:f>
+              <c:f>Usuarios!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -226,32 +310,95 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$1:$D$1</c:f>
+              <c:f>Usuarios!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -268,7 +415,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$D$3</c:f>
+              <c:f>Usuarios!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -279,24 +426,39 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7CCA-4ED6-8437-D6625FCC25A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="2074845696"/>
+        <c:axId val="2074847360"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$4</c:f>
+              <c:f>Usuarios!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -306,7 +468,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -315,23 +477,127 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5214910612400151E-2"/>
+                  <c:y val="-1.6692746344518606E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E12C-444B-A105-03462639C9FF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5214910612400059E-2"/>
+                  <c:y val="-2.0865932930648212E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E12C-444B-A105-03462639C9FF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0143273741600102E-2"/>
+                  <c:y val="-1.6692746344518606E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E12C-444B-A105-03462639C9FF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$1:$D$1</c:f>
+              <c:f>Usuarios!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -348,7 +614,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$4:$D$4</c:f>
+              <c:f>Usuarios!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -359,7 +625,7 @@
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,7 +665,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -415,10 +681,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -446,7 +709,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -474,10 +737,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -515,6 +775,371 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Smart</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> contracts ejecutados</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$8:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Smart contract ejecutados correctamente</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Comercio incumplió acuerdo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pagos fraudulentos por clientes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Saldo insuficiente de critpomoneda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$8:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA3B-460F-98DF-4535E3952021}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -611,34 +1236,68 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="326">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -653,7 +1312,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -661,7 +1320,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -669,17 +1328,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -688,9 +1344,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -713,35 +1368,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -750,33 +1405,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -792,21 +1446,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -840,64 +1489,155 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -905,102 +1645,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1008,17 +1652,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1027,12 +1671,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1041,18 +1682,70 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1063,25 +1756,487 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1119,15 +2274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>371474</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>2202179</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1135,6 +2290,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA7875A-7496-42E6-965E-545B1500049C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56052509-3DAB-471B-A936-E73E66E08B7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,18 +2650,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C449341F-E25E-4A93-8BFB-EB7B6CE7066A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1479,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1490,10 +2686,10 @@
         <v>144</v>
       </c>
       <c r="D2">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1504,10 +2700,10 @@
         <v>110</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1518,10 +2714,10 @@
         <v>121</v>
       </c>
       <c r="D4">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1535,13 +2731,100 @@
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7">
         <f>(D5/C5)*100</f>
-        <v>93.600000000000009</v>
+        <v>98.133333333333326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77D7C5E-C4D1-4AEB-A714-2FA5772A25F7}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f>(B1*92)/100</f>
+        <v>234.6</v>
+      </c>
+      <c r="F3">
+        <f>B1-D3</f>
+        <v>20.400000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f>(F3*3)/100</f>
+        <v>0.61200000000000021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f>(20*4)/100</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>SUM(B8:B11)</f>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
